--- a/public/app-assets/ImportSamples/7-SalesPlansImport.xlsx
+++ b/public/app-assets/ImportSamples/7-SalesPlansImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11745"/>
+    <workbookView windowWidth="21450" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -169,24 +169,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +200,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +228,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -229,10 +244,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,17 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,21 +288,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -289,18 +296,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -325,13 +325,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,19 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +475,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,121 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,15 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,26 +549,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,17 +593,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,124 +616,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,19 +757,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,8 +1071,8 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>

--- a/public/app-assets/ImportSamples/7-SalesPlansImport.xlsx
+++ b/public/app-assets/ImportSamples/7-SalesPlansImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>doc_no *</t>
   </si>
@@ -73,13 +73,10 @@
     <t>dealer</t>
   </si>
   <si>
-    <t>pending</t>
+    <t>approved</t>
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>si-002</t>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>social-media</t>
-  </si>
-  <si>
-    <t>approved</t>
   </si>
   <si>
     <t>si-003</t>
@@ -128,8 +122,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -169,20 +163,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -196,15 +176,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -219,27 +216,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,7 +233,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,40 +292,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -325,7 +319,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +391,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,115 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +524,30 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,11 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,8 +611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,180 +620,150 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -803,6 +797,9 @@
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1071,7 +1068,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -1148,7 +1145,7 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="5">
@@ -1184,18 +1181,18 @@
       <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="9">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="5">
@@ -1217,7 +1214,7 @@
         <v>2500</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="7">
         <v>44860</v>
@@ -1226,7 +1223,7 @@
         <v>44860</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>20</v>
@@ -1237,12 +1234,12 @@
     </row>
     <row r="4" customHeight="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5">
@@ -1264,7 +1261,7 @@
         <v>2500</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="7">
         <v>44861</v>
@@ -1273,7 +1270,7 @@
         <v>44861</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>20</v>
@@ -1284,12 +1281,12 @@
     </row>
     <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="5">
@@ -1311,7 +1308,7 @@
         <v>2500</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7">
         <v>44862</v>
@@ -1320,7 +1317,7 @@
         <v>44862</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>20</v>
@@ -1331,12 +1328,12 @@
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5">
@@ -1358,7 +1355,7 @@
         <v>2500</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7">
         <v>44863</v>
@@ -1367,7 +1364,7 @@
         <v>44863</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>20</v>
